--- a/biology/Zoologie/Coliade_verdâtre/Coliade_verdâtre.xlsx
+++ b/biology/Zoologie/Coliade_verdâtre/Coliade_verdâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coliade_verd%C3%A2tre</t>
+          <t>Coliade_verdâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias nastes
 Le Coliade verdâtre (Colias  nastes) est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coliade_verd%C3%A2tre</t>
+          <t>Coliade_verdâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,59 +525,60 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias  nastes (Boisduval, 1832)
-Sous-espèces  et formes
-Colias nastes  présent dans l'Arctique et le nord-est du Canada.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coliade_verdâtre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces  et formes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Colias nastes  présent dans l'Arctique et le nord-est du Canada.
 Au Canada
 Colias nastes aliaska  (O. Bang-Haas, 1927) Dans l'ouest de l'Arctique, le Yukon et l'Alaska.
 Colias nastes dioni (Verhulst, 1999) en Alaska
 Colias nastes ferrisi (Verhulst, 2004) en Alaska.
 Colias nastes moina (Strecker, 1880) Inféodée à la côte ouest de la baie d'Hudson.
-Colias nastes streckeri (Grum-Grshimailo, 1895) Dans les Rocheuses de l'Alberta et de la Colombie-Britannique[1].
+Colias nastes streckeri (Grum-Grshimailo, 1895) Dans les Rocheuses de l'Alberta et de la Colombie-Britannique.
 En Russie
 Colias nastes dezhnevi (Korshunov, 1996) ans le nord-est de la Sibérie.
 Colias nastes mongola (Alpheraky, 1897) inféodé aux monts Altaï.
 Colias nastes streckeri (Grum-Grshimailo, 1895) synonymes Colias nastes zemblica (Verity, 1911) et Colias nastes sibirica (Kurentzov, 1970)
-Colias nastes jacutica (Kurentzov, 1970) synonymes Colias nastes jacuticola (Weiss et Mracek, 1989)[2]
-Colias nastes cocandicides (Verity, 1911) aire de répartition non indiquée[3].
-Noms vernaculaires
-Le Coliade verdâtre se nomme Labrador Sulphur en anglais et Vale luzernevlinder en néerlandais.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Coliade_verd%C3%A2tre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coliade_verd%C3%A2tre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coliade verdâtre est un papillon de taille moyenne d'une couleur jaune pâle à verdâtre, au revers blanc bordé d'une frange rose des deux côtés.
-Chenille
-Les œufs éclosent en une à deux semaines, et donnent des chenilles vertes ornées à maturité d'une fine raie blanche à points noirs sur les côtés.
-</t>
+Colias nastes jacutica (Kurentzov, 1970) synonymes Colias nastes jacuticola (Weiss et Mracek, 1989)
+Colias nastes cocandicides (Verity, 1911) aire de répartition non indiquée.</t>
         </is>
       </c>
     </row>
@@ -575,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coliade_verd%C3%A2tre</t>
+          <t>Coliade_verdâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,16 +603,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-C'est la chrysalide qui hiverne et très rarement la chenille. Il arrive que la chrysalide hiverne deux hivers de suite.
-Le Coliade verdâtre vole de mai à juillet, en une seule génération.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Vaccinium et des  Astragalus (Astragalus alpinus et Astragalus frigidus).
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade verdâtre se nomme Labrador Sulphur en anglais et Vale luzernevlinder en néerlandais.
 </t>
         </is>
       </c>
@@ -610,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coliade_verd%C3%A2tre</t>
+          <t>Coliade_verdâtre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,17 +640,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coliade verdâtre est présent dans toute la région arctique: Groenland, Labrador et nord de l'Amérique. C'est une espèce circumpolaire.
-Au Canada il est présent dans les régions alpines de la Colombie-Britannique et de l'Alberta, dans tout le Yukon, le Nunavut et les Territoires du Nord-Ouest, et dans l'Archipel arctique jusqu'à l'île d'Ellesmere.
-Biotope
-Le Coliade verdâtre apprécie les  lieux caillouteux et les clairières marécageuses des bois de bouleau.
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade verdâtre est un papillon de taille moyenne d'une couleur jaune pâle à verdâtre, au revers blanc bordé d'une frange rose des deux côtés.
 </t>
         </is>
       </c>
@@ -646,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coliade_verd%C3%A2tre</t>
+          <t>Coliade_verdâtre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,10 +673,232 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs éclosent en une à deux semaines, et donnent des chenilles vertes ornées à maturité d'une fine raie blanche à points noirs sur les côtés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coliade_verdâtre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la chrysalide qui hiverne et très rarement la chenille. Il arrive que la chrysalide hiverne deux hivers de suite.
+Le Coliade verdâtre vole de mai à juillet, en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coliade_verdâtre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Vaccinium et des  Astragalus (Astragalus alpinus et Astragalus frigidus).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coliade_verdâtre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade verdâtre est présent dans toute la région arctique: Groenland, Labrador et nord de l'Amérique. C'est une espèce circumpolaire.
+Au Canada il est présent dans les régions alpines de la Colombie-Britannique et de l'Alberta, dans tout le Yukon, le Nunavut et les Territoires du Nord-Ouest, et dans l'Archipel arctique jusqu'à l'île d'Ellesmere.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coliade_verdâtre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coliade verdâtre apprécie les  lieux caillouteux et les clairières marécageuses des bois de bouleau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coliade_verdâtre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coliade_verdâtre</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coliade_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
